--- a/R2/02_SignalMatrix/HkmcVehOutputAdap/VehOutputAdap_SignalMatrix_V3_R2.xlsx
+++ b/R2/02_SignalMatrix/HkmcVehOutputAdap/VehOutputAdap_SignalMatrix_V3_R2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_2020\90_GitHub\0410\Veoneer\R2\02_SignalMatrix\HkmcVehOutputAdap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A37E20-5E1A-4DE9-B9B2-7FF318E71D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9A6D3-93CE-47CE-9B3E-262BE53D441B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51B81819-EC55-40BC-AC3D-96F7FA05F5FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51B81819-EC55-40BC-AC3D-96F7FA05F5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="22" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="399">
   <si>
     <t>Change Log</t>
   </si>
@@ -487,12 +487,6 @@
     <t>FCA_PrefillActvReq</t>
   </si>
   <si>
-    <t>Cx0_PrefillAR_No_Prefill
-Cx1_PrefillAR_Prefill_act
-Cx2_PrefillAR_Reserved
-Cx3_PrefillAR_Error_Indicator</t>
-  </si>
-  <si>
     <t>FCA_DclReqVal</t>
   </si>
   <si>
@@ -508,16 +502,6 @@
     <t xml:space="preserve">FCA_StbltActvReq </t>
   </si>
   <si>
-    <t>Cx0_StbltAR_Release_no_alert
-Cx1_StbltAR_Precrash_full_retraction
-Cx2_StbltAR_Haptic_Warning
-Cx3_StbltAR_Reserved
-Cx4_StbltAR_Reserved
-Cx5_StbltAR_Reserved
-0x6 _StbltAR_Reserved
-0x7_StbltAR_Reserved</t>
-  </si>
-  <si>
     <t>FCA_VehStpReq</t>
   </si>
   <si>
@@ -528,19 +512,6 @@
   </si>
   <si>
     <t>FCA_OnOffEquipSta</t>
-  </si>
-  <si>
-    <t>Cx0_OnOES_Default
-Cx1_OnOES_Off
-Cx2_OnOES_Warning
-Cx3_OnOES_Assist
-Cx4_OnOES_Reserved
-Cx5_OnOES_Reserved
-Cx6_OnOES_Reserved
-Cx7_OnOES_Invalid</t>
-  </si>
-  <si>
-    <t>FCA_SysFlrSta</t>
   </si>
   <si>
     <t>FCA_RelVel</t>
@@ -3796,16 +3767,6 @@
 Cx6_SysW_Hands_Off_Warning_3
 Cx9_SysW_System_Automatic_Off
 CxF_SysW_System_Fail</t>
-  </si>
-  <si>
-    <t>Cx0_WrngSS_No_warning
-Cx1_WrngSS_Warning_1
-Cx2_WrngSS_Warning_2
-Cx3_WrngSS_Warning_3
-Cx4_WrngSS_Reserved
-Cx5_WrngSS_Reserved
-Cx6_WrngSS_Reserved
-Cx7_WrngSS_Error_Indicator</t>
   </si>
   <si>
     <t>Cx0_SnstvtyMRV_Default
@@ -7581,16 +7542,6 @@
     <t>Cx1FF Signal Invalid</t>
   </si>
   <si>
-    <t>Cx0_SysFS_Normal
-Cx1_SysFS_Temp_Unavailable_by_Camera
-Cx2_SysFS_Temp_Unavailable_by_Radar
-Cx3_SysFS_Service_Required
-Cx4_SysFS_Temp_Unavailable_by_Camera_Only
-Cx5_SysFS_Temp_Unavailable_by_Camera_Fusion_ADAS 
-Cx6_SysFS_Temp_Unavailable_by_Radar_Fusion 
-Cx7_SysFS_Reserved</t>
-  </si>
-  <si>
     <t>Cx0_UsmM_NONE
 Cx1_UsmM_LKA
 Cx2_UsmM_LKA_2_Mode
@@ -8851,13 +8802,119 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Updated signals name, data type, description(The change was marked yellow based on new CANDBC
-HIA_OUTPUTS changed to the Strikethrough.This signal is not used in R2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Based on HMVS4_CAN-FD_DBC_3Gen_R3_rev2.dbc &amp;
 HMVS4_HS-CANDBC_2Gen-2ch-C_R3_For_Demo_rev2.dbc </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_StbltAR_Release_no_alert
+Cx1_StbltAR_Precrash_full_retraction
+Cx2_StbltAR_Haptic_Warning
+Cx3_StbltAR_Reserved
+Cx4_StbltAR_Reserved
+Cx5_StbltAR_Reserved
+0x6 _StbltAR_Reserved
+0x7_StbltAR_Reserved</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_FullAR_No_Full_act
+Cx1_FullAR_Full_act
+Cx2_FullAR_Reserved
+Cx3_FullAR_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_PrefillAR_No_Prefill
+Cx1_PrefillAR_Prefill_act
+Cx2_PrefillAR_Reserved
+Cx3_PrefillAR_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_WrngSS_No_warning
+Cx1_WrngSS_Warning_1
+Cx2_WrngSS_Warning_2
+Cx3_WrngSS_Warning_3
+Cx4_WrngSS_Reserved
+Cx5_WrngSS_Reserved
+Cx6_WrngSS_Reserved
+Cx7_WrngSS_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_WrngLS_No_warning
+Cx1_WrngLS_Warning_Level_1
+Cx2_WrngLS_Warning_Level_2
+Cx3_WrngLS_Warning_Level_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_VehSR_No_Request
+Cx1_VehSR_Stop_control_is_required
+Cx2_VehSR_Reserved
+Cx3_VehSR_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_OnOES_Default
+Cx1_OnOES_Off
+Cx2_OnOES_Warning
+Cx3_OnOES_Assist
+Cx4_OnOES_Reserved
+Cx5_OnOES_Reserved
+Cx6_OnOES_Reserved
+Cx7_OnOES_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_FCA_SFS_Normal
+Cx1_FCA_SFS_Temp_Unavailable_by_FLC_Sensor_fusion
+Cx2_FCA_SFS_Temp_Unavailable_by_FLR_only_or_SensorfusionInFLR
+Cx3_FCA_SFS_Service_Required
+Cx4_FCA_SFS_Temp_Unavailable_by_FLC_only
+Cx5_FCA_SFS_Temp_Unavailable_by_FLC_Sensor_fusion_in_ADAS_DRV
+Cx6_FCA_SFS_Temp_Unavailable_by_FLR_Sensor_fusion_in_FLC
+Cx7_FCA_SFS_Reserved</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCA_SysFlrSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Error below, reducing the number of characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Cannot define enumeration with name 'Cx5_FCA_SFS_Temp_Unavailable_by_Front_View_Camera_Sensor_fusion_in_ADAS_DRV' because this is not a valid MATLAB identifier</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Updated signals name, data type, description(The change was marked yellow based on new CANDBC
+2) HIA_OUTPUTS changed to the Strikethrough.This signal is not used in R2
+3) reducing the number of characters about FCA_SysFlrSta's Enum description to solve errors like below
+&lt;arxml importing error in the Matlab&gt;
+Cannot define enumeration with name 'Cx5_FCA_SFS_Temp_Unavailable_by_Front_View_Camera_Sensor_fusion_in_ADAS_DRV' because this is not a valid MATLAB identifier
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -9276,7 +9333,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -9560,6 +9617,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9588,6 +9670,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9623,33 +9708,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -10545,8 +10605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD918A75-F316-4C2F-AC83-67A6AD150657}">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10594,13 +10654,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -10723,7 +10783,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="60"/>
@@ -10752,7 +10812,7 @@
       <c r="AD5" s="60"/>
       <c r="AE5" s="60"/>
     </row>
-    <row r="6" spans="1:31" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -10761,13 +10821,13 @@
         <v>44006</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="F6" s="137" t="s">
-        <v>394</v>
+        <v>398</v>
+      </c>
+      <c r="F6" s="115" t="s">
+        <v>387</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -12261,8 +12321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D27E9A-821C-4719-949E-ADFE999540AB}">
   <dimension ref="A1:K556"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:C91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -12275,7 +12335,8 @@
     <col min="6" max="6" width="15.75" style="7" customWidth="1"/>
     <col min="7" max="7" width="59.875" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="44.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="7" customWidth="1"/>
     <col min="11" max="16384" width="9.125" style="7"/>
   </cols>
   <sheetData>
@@ -12309,11 +12370,11 @@
       <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="122" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E3" s="54" t="s">
         <v>16</v>
@@ -12330,9 +12391,9 @@
       <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="114"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="65" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E4" s="54" t="s">
         <v>16</v>
@@ -12341,17 +12402,17 @@
         <v>15</v>
       </c>
       <c r="G4" s="94" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="114"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="65" t="s">
         <v>17</v>
       </c>
@@ -12362,7 +12423,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H5" s="64"/>
     </row>
@@ -12370,9 +12431,9 @@
       <c r="B6" s="13">
         <v>4</v>
       </c>
-      <c r="C6" s="114"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="65" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E6" s="54" t="s">
         <v>18</v>
@@ -12387,7 +12448,7 @@
       <c r="B7" s="13">
         <v>5</v>
       </c>
-      <c r="C7" s="114"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="65" t="s">
         <v>19</v>
       </c>
@@ -12398,7 +12459,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="64"/>
     </row>
@@ -12406,9 +12467,9 @@
       <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" s="114"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="65" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E8" s="54" t="s">
         <v>16</v>
@@ -12417,7 +12478,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H8" s="64"/>
     </row>
@@ -12425,7 +12486,7 @@
       <c r="B9" s="13">
         <v>7</v>
       </c>
-      <c r="C9" s="114"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="65" t="s">
         <v>20</v>
       </c>
@@ -12436,7 +12497,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H9" s="64"/>
     </row>
@@ -12444,7 +12505,7 @@
       <c r="B10" s="13">
         <v>8</v>
       </c>
-      <c r="C10" s="114"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="65" t="s">
         <v>21</v>
       </c>
@@ -12455,17 +12516,17 @@
         <v>15</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>9</v>
       </c>
-      <c r="C11" s="114"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="65" t="s">
         <v>22</v>
       </c>
@@ -12476,19 +12537,19 @@
         <v>15</v>
       </c>
       <c r="G11" s="94" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>10</v>
       </c>
-      <c r="C12" s="114"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="65" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>23</v>
@@ -12503,7 +12564,7 @@
       <c r="B13" s="13">
         <v>11</v>
       </c>
-      <c r="C13" s="114"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="65" t="s">
         <v>24</v>
       </c>
@@ -12520,7 +12581,7 @@
       <c r="B14" s="13">
         <v>12</v>
       </c>
-      <c r="C14" s="114"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="65" t="s">
         <v>26</v>
       </c>
@@ -12531,17 +12592,17 @@
         <v>15</v>
       </c>
       <c r="G14" s="94" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>13</v>
       </c>
-      <c r="C15" s="114"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="65" t="s">
         <v>27</v>
       </c>
@@ -12558,7 +12619,7 @@
       <c r="B16" s="13">
         <v>14</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="65" t="s">
         <v>29</v>
       </c>
@@ -12569,17 +12630,17 @@
         <v>15</v>
       </c>
       <c r="G16" s="94" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>15</v>
       </c>
-      <c r="C17" s="114"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="65" t="s">
         <v>30</v>
       </c>
@@ -12596,7 +12657,7 @@
       <c r="B18" s="13">
         <v>16</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="65" t="s">
         <v>32</v>
       </c>
@@ -12607,7 +12668,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H18" s="64"/>
     </row>
@@ -12615,9 +12676,9 @@
       <c r="B19" s="13">
         <v>17</v>
       </c>
-      <c r="C19" s="114"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="69" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E19" s="56" t="s">
         <v>25</v>
@@ -12632,7 +12693,7 @@
       <c r="B20" s="13">
         <v>18</v>
       </c>
-      <c r="C20" s="114"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="69" t="s">
         <v>33</v>
       </c>
@@ -12649,11 +12710,11 @@
       <c r="B21" s="13">
         <v>19</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="122" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E21" s="90" t="s">
         <v>16</v>
@@ -12662,7 +12723,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="79" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H21" s="64"/>
     </row>
@@ -12670,9 +12731,9 @@
       <c r="B22" s="13">
         <v>20</v>
       </c>
-      <c r="C22" s="113"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="55" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E22" s="90" t="s">
         <v>16</v>
@@ -12681,7 +12742,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H22" s="64"/>
     </row>
@@ -12689,9 +12750,9 @@
       <c r="B23" s="13">
         <v>21</v>
       </c>
-      <c r="C23" s="113"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="55" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E23" s="90" t="s">
         <v>16</v>
@@ -12700,7 +12761,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H23" s="64"/>
     </row>
@@ -12708,9 +12769,9 @@
       <c r="B24" s="13">
         <v>22</v>
       </c>
-      <c r="C24" s="113"/>
+      <c r="C24" s="122"/>
       <c r="D24" s="55" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E24" s="90" t="s">
         <v>16</v>
@@ -12727,9 +12788,9 @@
       <c r="B25" s="13">
         <v>23</v>
       </c>
-      <c r="C25" s="113"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="55" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E25" s="56" t="s">
         <v>16</v>
@@ -12738,7 +12799,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="79" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H25" s="64"/>
     </row>
@@ -12746,9 +12807,9 @@
       <c r="B26" s="13">
         <v>24</v>
       </c>
-      <c r="C26" s="113"/>
+      <c r="C26" s="122"/>
       <c r="D26" s="55" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E26" s="56" t="s">
         <v>16</v>
@@ -12757,7 +12818,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="79" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H26" s="64"/>
     </row>
@@ -12765,8 +12826,8 @@
       <c r="B27" s="13">
         <v>25</v>
       </c>
-      <c r="C27" s="117" t="s">
-        <v>391</v>
+      <c r="C27" s="127" t="s">
+        <v>385</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>39</v>
@@ -12778,10 +12839,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="93" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H27" s="77" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -12790,7 +12851,7 @@
       <c r="B28" s="13">
         <v>26</v>
       </c>
-      <c r="C28" s="117"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="55" t="s">
         <v>41</v>
       </c>
@@ -12804,7 +12865,7 @@
         <v>42</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -12813,7 +12874,7 @@
       <c r="B29" s="13">
         <v>27</v>
       </c>
-      <c r="C29" s="117"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="55" t="s">
         <v>43</v>
       </c>
@@ -12824,10 +12885,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="97" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H29" s="96" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -12836,7 +12897,7 @@
       <c r="B30" s="13">
         <v>28</v>
       </c>
-      <c r="C30" s="117"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="55" t="s">
         <v>45</v>
       </c>
@@ -12848,7 +12909,7 @@
       </c>
       <c r="G30" s="84"/>
       <c r="H30" s="83" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -12857,7 +12918,7 @@
       <c r="B31" s="13">
         <v>29</v>
       </c>
-      <c r="C31" s="117"/>
+      <c r="C31" s="127"/>
       <c r="D31" s="55" t="s">
         <v>46</v>
       </c>
@@ -12878,7 +12939,7 @@
       <c r="B32" s="13">
         <v>30</v>
       </c>
-      <c r="C32" s="117"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="55" t="s">
         <v>48</v>
       </c>
@@ -12899,7 +12960,7 @@
       <c r="B33" s="13">
         <v>31</v>
       </c>
-      <c r="C33" s="117"/>
+      <c r="C33" s="127"/>
       <c r="D33" s="55" t="s">
         <v>50</v>
       </c>
@@ -12910,10 +12971,10 @@
         <v>15</v>
       </c>
       <c r="G33" s="93" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H33" s="77" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -12922,7 +12983,7 @@
       <c r="B34" s="13">
         <v>32</v>
       </c>
-      <c r="C34" s="117"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="55" t="s">
         <v>51</v>
       </c>
@@ -12933,10 +12994,10 @@
         <v>15</v>
       </c>
       <c r="G34" s="106" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H34" s="77" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -12945,7 +13006,7 @@
       <c r="B35" s="13">
         <v>33</v>
       </c>
-      <c r="C35" s="117"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="55" t="s">
         <v>52</v>
       </c>
@@ -12966,7 +13027,7 @@
       <c r="B36" s="13">
         <v>34</v>
       </c>
-      <c r="C36" s="117"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="55" t="s">
         <v>54</v>
       </c>
@@ -12977,10 +13038,10 @@
         <v>15</v>
       </c>
       <c r="G36" s="93" t="s">
+        <v>314</v>
+      </c>
+      <c r="H36" s="77" t="s">
         <v>320</v>
-      </c>
-      <c r="H36" s="77" t="s">
-        <v>326</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -12989,7 +13050,7 @@
       <c r="B37" s="13">
         <v>35</v>
       </c>
-      <c r="C37" s="117"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="55" t="s">
         <v>55</v>
       </c>
@@ -13000,10 +13061,10 @@
         <v>15</v>
       </c>
       <c r="G37" s="93" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H37" s="77" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -13012,19 +13073,19 @@
       <c r="B38" s="13">
         <v>36</v>
       </c>
-      <c r="C38" s="117"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="74" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E38" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F38" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="91"/>
       <c r="H38" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -13033,19 +13094,19 @@
       <c r="B39" s="13">
         <v>37</v>
       </c>
-      <c r="C39" s="117"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="74" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F39" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="91"/>
       <c r="H39" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -13054,19 +13115,19 @@
       <c r="B40" s="13">
         <v>38</v>
       </c>
-      <c r="C40" s="117"/>
+      <c r="C40" s="127"/>
       <c r="D40" s="74" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E40" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F40" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="91"/>
       <c r="H40" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -13075,19 +13136,19 @@
       <c r="B41" s="13">
         <v>39</v>
       </c>
-      <c r="C41" s="117"/>
+      <c r="C41" s="127"/>
       <c r="D41" s="74" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E41" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F41" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="91"/>
       <c r="H41" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -13096,19 +13157,19 @@
       <c r="B42" s="13">
         <v>40</v>
       </c>
-      <c r="C42" s="117"/>
+      <c r="C42" s="127"/>
       <c r="D42" s="74" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E42" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F42" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="91"/>
       <c r="H42" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -13117,19 +13178,19 @@
       <c r="B43" s="13">
         <v>41</v>
       </c>
-      <c r="C43" s="117"/>
+      <c r="C43" s="127"/>
       <c r="D43" s="74" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F43" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="91"/>
       <c r="H43" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -13138,19 +13199,19 @@
       <c r="B44" s="13">
         <v>42</v>
       </c>
-      <c r="C44" s="117"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="74" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E44" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F44" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="91"/>
       <c r="H44" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -13159,19 +13220,19 @@
       <c r="B45" s="13">
         <v>43</v>
       </c>
-      <c r="C45" s="117"/>
+      <c r="C45" s="127"/>
       <c r="D45" s="74" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F45" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="91"/>
       <c r="H45" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -13180,19 +13241,19 @@
       <c r="B46" s="13">
         <v>44</v>
       </c>
-      <c r="C46" s="117"/>
+      <c r="C46" s="127"/>
       <c r="D46" s="74" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E46" s="75" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F46" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="91"/>
       <c r="H46" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -13201,19 +13262,19 @@
       <c r="B47" s="13">
         <v>45</v>
       </c>
-      <c r="C47" s="117"/>
+      <c r="C47" s="127"/>
       <c r="D47" s="74" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E47" s="75" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F47" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="91"/>
       <c r="H47" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -13222,9 +13283,9 @@
       <c r="B48" s="13">
         <v>46</v>
       </c>
-      <c r="C48" s="117"/>
+      <c r="C48" s="127"/>
       <c r="D48" s="74" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E48" s="75" t="s">
         <v>16</v>
@@ -13233,10 +13294,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="92" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H48" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -13245,9 +13306,9 @@
       <c r="B49" s="13">
         <v>47</v>
       </c>
-      <c r="C49" s="117"/>
+      <c r="C49" s="127"/>
       <c r="D49" s="74" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E49" s="75" t="s">
         <v>16</v>
@@ -13256,10 +13317,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="92" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H49" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -13268,9 +13329,9 @@
       <c r="B50" s="13">
         <v>48</v>
       </c>
-      <c r="C50" s="117"/>
+      <c r="C50" s="127"/>
       <c r="D50" s="74" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E50" s="75" t="s">
         <v>16</v>
@@ -13279,10 +13340,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="93" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H50" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -13291,9 +13352,9 @@
       <c r="B51" s="13">
         <v>49</v>
       </c>
-      <c r="C51" s="117"/>
+      <c r="C51" s="127"/>
       <c r="D51" s="74" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E51" s="75" t="s">
         <v>16</v>
@@ -13302,10 +13363,10 @@
         <v>15</v>
       </c>
       <c r="G51" s="93" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H51" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -13314,9 +13375,9 @@
       <c r="B52" s="13">
         <v>50</v>
       </c>
-      <c r="C52" s="117"/>
+      <c r="C52" s="127"/>
       <c r="D52" s="74" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E52" s="75" t="s">
         <v>16</v>
@@ -13325,10 +13386,10 @@
         <v>15</v>
       </c>
       <c r="G52" s="106" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H52" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -13337,9 +13398,9 @@
       <c r="B53" s="13">
         <v>51</v>
       </c>
-      <c r="C53" s="117"/>
+      <c r="C53" s="127"/>
       <c r="D53" s="74" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E53" s="75" t="s">
         <v>16</v>
@@ -13348,10 +13409,10 @@
         <v>15</v>
       </c>
       <c r="G53" s="106" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H53" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -13360,19 +13421,19 @@
       <c r="B54" s="13">
         <v>52</v>
       </c>
-      <c r="C54" s="117"/>
+      <c r="C54" s="127"/>
       <c r="D54" s="74" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E54" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F54" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="91"/>
       <c r="H54" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -13381,19 +13442,19 @@
       <c r="B55" s="13">
         <v>53</v>
       </c>
-      <c r="C55" s="117"/>
+      <c r="C55" s="127"/>
       <c r="D55" s="74" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E55" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F55" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="91"/>
       <c r="H55" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -13402,19 +13463,19 @@
       <c r="B56" s="13">
         <v>54</v>
       </c>
-      <c r="C56" s="117"/>
+      <c r="C56" s="127"/>
       <c r="D56" s="74" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E56" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F56" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="91"/>
       <c r="H56" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -13423,19 +13484,19 @@
       <c r="B57" s="13">
         <v>55</v>
       </c>
-      <c r="C57" s="117"/>
+      <c r="C57" s="127"/>
       <c r="D57" s="74" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E57" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F57" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="91"/>
       <c r="H57" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -13444,19 +13505,19 @@
       <c r="B58" s="13">
         <v>56</v>
       </c>
-      <c r="C58" s="117"/>
+      <c r="C58" s="127"/>
       <c r="D58" s="74" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E58" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F58" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="91"/>
       <c r="H58" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -13465,19 +13526,19 @@
       <c r="B59" s="13">
         <v>57</v>
       </c>
-      <c r="C59" s="117"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="74" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E59" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F59" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="91"/>
       <c r="H59" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -13486,19 +13547,19 @@
       <c r="B60" s="13">
         <v>58</v>
       </c>
-      <c r="C60" s="117"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="74" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E60" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F60" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="91"/>
       <c r="H60" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -13507,19 +13568,19 @@
       <c r="B61" s="13">
         <v>59</v>
       </c>
-      <c r="C61" s="117"/>
+      <c r="C61" s="127"/>
       <c r="D61" s="74" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E61" s="75" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F61" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="91"/>
       <c r="H61" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -13528,9 +13589,9 @@
       <c r="B62" s="13">
         <v>60</v>
       </c>
-      <c r="C62" s="117"/>
+      <c r="C62" s="127"/>
       <c r="D62" s="74" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E62" s="75" t="s">
         <v>16</v>
@@ -13539,10 +13600,10 @@
         <v>15</v>
       </c>
       <c r="G62" s="93" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H62" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -13551,9 +13612,9 @@
       <c r="B63" s="13">
         <v>61</v>
       </c>
-      <c r="C63" s="117"/>
+      <c r="C63" s="127"/>
       <c r="D63" s="74" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E63" s="75" t="s">
         <v>16</v>
@@ -13562,10 +13623,10 @@
         <v>15</v>
       </c>
       <c r="G63" s="93" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H63" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -13574,9 +13635,9 @@
       <c r="B64" s="13">
         <v>62</v>
       </c>
-      <c r="C64" s="117"/>
+      <c r="C64" s="127"/>
       <c r="D64" s="74" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E64" s="75" t="s">
         <v>16</v>
@@ -13585,10 +13646,10 @@
         <v>15</v>
       </c>
       <c r="G64" s="93" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H64" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -13597,9 +13658,9 @@
       <c r="B65" s="13">
         <v>63</v>
       </c>
-      <c r="C65" s="117"/>
+      <c r="C65" s="127"/>
       <c r="D65" s="74" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E65" s="75" t="s">
         <v>16</v>
@@ -13608,588 +13669,588 @@
         <v>15</v>
       </c>
       <c r="G65" s="93" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H65" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
     </row>
     <row r="66" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66"/>
-      <c r="B66" s="128">
+      <c r="B66" s="107">
         <v>64</v>
       </c>
-      <c r="C66" s="129" t="s">
-        <v>373</v>
-      </c>
-      <c r="D66" s="130" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="131" t="s">
+      <c r="C66" s="126" t="s">
+        <v>367</v>
+      </c>
+      <c r="D66" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="132" t="s">
+      <c r="F66" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="H66" s="134" t="s">
-        <v>324</v>
+      <c r="G66" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="H66" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67"/>
-      <c r="B67" s="128">
+      <c r="B67" s="107">
         <v>65</v>
       </c>
-      <c r="C67" s="129"/>
-      <c r="D67" s="130" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" s="131" t="s">
+      <c r="C67" s="126"/>
+      <c r="D67" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="132" t="s">
+      <c r="F67" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="133" t="s">
-        <v>166</v>
-      </c>
-      <c r="H67" s="134" t="s">
-        <v>324</v>
+      <c r="G67" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="H67" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68"/>
-      <c r="B68" s="128">
+      <c r="B68" s="107">
         <v>66</v>
       </c>
-      <c r="C68" s="129"/>
-      <c r="D68" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="E68" s="131" t="s">
+      <c r="C68" s="126"/>
+      <c r="D68" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="132" t="s">
+      <c r="F68" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H68" s="134" t="s">
-        <v>324</v>
+      <c r="G68" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="H68" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69"/>
-      <c r="B69" s="128">
+      <c r="B69" s="107">
         <v>67</v>
       </c>
-      <c r="C69" s="129"/>
-      <c r="D69" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="131" t="s">
+      <c r="C69" s="126"/>
+      <c r="D69" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="132" t="s">
+      <c r="F69" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="133" t="s">
-        <v>268</v>
-      </c>
-      <c r="H69" s="134" t="s">
-        <v>324</v>
+      <c r="G69" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="H69" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70"/>
-      <c r="B70" s="128">
+      <c r="B70" s="107">
         <v>68</v>
       </c>
-      <c r="C70" s="129"/>
-      <c r="D70" s="130" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="131" t="s">
+      <c r="C70" s="126"/>
+      <c r="D70" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="132" t="s">
+      <c r="F70" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="H70" s="134" t="s">
-        <v>324</v>
+      <c r="G70" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71"/>
-      <c r="B71" s="128">
+      <c r="B71" s="107">
         <v>69</v>
       </c>
-      <c r="C71" s="129"/>
-      <c r="D71" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="E71" s="131" t="s">
+      <c r="C71" s="126"/>
+      <c r="D71" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="132" t="s">
+      <c r="F71" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" s="134" t="s">
-        <v>324</v>
+      <c r="G71" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72"/>
-      <c r="B72" s="128">
+      <c r="B72" s="107">
         <v>70</v>
       </c>
-      <c r="C72" s="129"/>
-      <c r="D72" s="130" t="s">
-        <v>137</v>
-      </c>
-      <c r="E72" s="131" t="s">
+      <c r="C72" s="126"/>
+      <c r="D72" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="132" t="s">
+      <c r="F72" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="133" t="s">
-        <v>269</v>
-      </c>
-      <c r="H72" s="134" t="s">
-        <v>324</v>
+      <c r="G72" s="111" t="s">
+        <v>264</v>
+      </c>
+      <c r="H72" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73"/>
-      <c r="B73" s="128">
+      <c r="B73" s="107">
         <v>71</v>
       </c>
-      <c r="C73" s="129"/>
-      <c r="D73" s="135" t="s">
-        <v>138</v>
-      </c>
-      <c r="E73" s="131" t="s">
+      <c r="C73" s="126"/>
+      <c r="D73" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="132" t="s">
+      <c r="F73" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G73" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="H73" s="134" t="s">
-        <v>324</v>
+      <c r="G73" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74"/>
-      <c r="B74" s="128">
+      <c r="B74" s="107">
         <v>72</v>
       </c>
-      <c r="C74" s="129"/>
-      <c r="D74" s="135" t="s">
-        <v>140</v>
-      </c>
-      <c r="E74" s="131" t="s">
+      <c r="C74" s="126"/>
+      <c r="D74" s="113" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="132" t="s">
+      <c r="F74" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="H74" s="134" t="s">
-        <v>324</v>
+      <c r="G74" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="H74" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75"/>
-      <c r="B75" s="128">
+      <c r="B75" s="107">
         <v>73</v>
       </c>
-      <c r="C75" s="129"/>
-      <c r="D75" s="135" t="s">
-        <v>142</v>
-      </c>
-      <c r="E75" s="131" t="s">
+      <c r="C75" s="126"/>
+      <c r="D75" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="132" t="s">
+      <c r="F75" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H75" s="134" t="s">
-        <v>324</v>
+      <c r="G75" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="H75" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76"/>
-      <c r="B76" s="128">
+      <c r="B76" s="107">
         <v>74</v>
       </c>
-      <c r="C76" s="129"/>
-      <c r="D76" s="135" t="s">
-        <v>144</v>
-      </c>
-      <c r="E76" s="131" t="s">
+      <c r="C76" s="126"/>
+      <c r="D76" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="132" t="s">
+      <c r="F76" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="133" t="s">
-        <v>145</v>
-      </c>
-      <c r="H76" s="134" t="s">
-        <v>324</v>
+      <c r="G76" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="H76" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77"/>
-      <c r="B77" s="128">
+      <c r="B77" s="107">
         <v>75</v>
       </c>
-      <c r="C77" s="129"/>
-      <c r="D77" s="130" t="s">
-        <v>146</v>
-      </c>
-      <c r="E77" s="131" t="s">
+      <c r="C77" s="126"/>
+      <c r="D77" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="132" t="s">
+      <c r="F77" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="133" t="s">
-        <v>270</v>
-      </c>
-      <c r="H77" s="134" t="s">
-        <v>324</v>
+      <c r="G77" s="111" t="s">
+        <v>265</v>
+      </c>
+      <c r="H77" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78"/>
-      <c r="B78" s="128">
+      <c r="B78" s="107">
         <v>76</v>
       </c>
-      <c r="C78" s="129"/>
-      <c r="D78" s="130" t="s">
-        <v>147</v>
-      </c>
-      <c r="E78" s="131" t="s">
+      <c r="C78" s="126"/>
+      <c r="D78" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="132" t="s">
+      <c r="F78" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="133" t="s">
-        <v>271</v>
-      </c>
-      <c r="H78" s="134" t="s">
-        <v>324</v>
+      <c r="G78" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="H78" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79"/>
-      <c r="B79" s="128">
+      <c r="B79" s="107">
         <v>77</v>
       </c>
-      <c r="C79" s="129"/>
-      <c r="D79" s="130" t="s">
-        <v>148</v>
-      </c>
-      <c r="E79" s="131" t="s">
+      <c r="C79" s="126"/>
+      <c r="D79" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="132" t="s">
+      <c r="F79" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="133" t="s">
-        <v>272</v>
-      </c>
-      <c r="H79" s="134" t="s">
-        <v>324</v>
+      <c r="G79" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="H79" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80"/>
-      <c r="B80" s="128">
+      <c r="B80" s="107">
         <v>78</v>
       </c>
-      <c r="C80" s="129"/>
-      <c r="D80" s="130" t="s">
-        <v>149</v>
-      </c>
-      <c r="E80" s="131" t="s">
+      <c r="C80" s="126"/>
+      <c r="D80" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="132" t="s">
+      <c r="F80" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="133" t="s">
-        <v>273</v>
-      </c>
-      <c r="H80" s="134" t="s">
-        <v>324</v>
+      <c r="G80" s="111" t="s">
+        <v>268</v>
+      </c>
+      <c r="H80" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81"/>
-      <c r="B81" s="128">
+      <c r="B81" s="107">
         <v>79</v>
       </c>
-      <c r="C81" s="129"/>
-      <c r="D81" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" s="131" t="s">
+      <c r="C81" s="126"/>
+      <c r="D81" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="E81" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F81" s="132" t="s">
+      <c r="F81" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="133" t="s">
-        <v>169</v>
-      </c>
-      <c r="H81" s="134" t="s">
-        <v>324</v>
+      <c r="G81" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="H81" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82"/>
-      <c r="B82" s="128">
+      <c r="B82" s="107">
         <v>80</v>
       </c>
-      <c r="C82" s="129"/>
-      <c r="D82" s="130" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="131" t="s">
+      <c r="C82" s="126"/>
+      <c r="D82" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="132" t="s">
+      <c r="F82" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="133" t="s">
-        <v>274</v>
-      </c>
-      <c r="H82" s="134" t="s">
-        <v>324</v>
+      <c r="G82" s="111" t="s">
+        <v>269</v>
+      </c>
+      <c r="H82" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83"/>
-      <c r="B83" s="128">
+      <c r="B83" s="107">
         <v>81</v>
       </c>
-      <c r="C83" s="129"/>
-      <c r="D83" s="135" t="s">
-        <v>152</v>
-      </c>
-      <c r="E83" s="131" t="s">
+      <c r="C83" s="126"/>
+      <c r="D83" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="E83" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="132" t="s">
+      <c r="F83" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="133" t="s">
-        <v>317</v>
-      </c>
-      <c r="H83" s="134" t="s">
-        <v>324</v>
+      <c r="G83" s="111" t="s">
+        <v>312</v>
+      </c>
+      <c r="H83" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84"/>
-      <c r="B84" s="128">
+      <c r="B84" s="107">
         <v>82</v>
       </c>
-      <c r="C84" s="129"/>
-      <c r="D84" s="130" t="s">
-        <v>153</v>
-      </c>
-      <c r="E84" s="131" t="s">
+      <c r="C84" s="126"/>
+      <c r="D84" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="132" t="s">
+      <c r="F84" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="133" t="s">
-        <v>154</v>
-      </c>
-      <c r="H84" s="134" t="s">
-        <v>324</v>
+      <c r="G84" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="H84" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85"/>
-      <c r="B85" s="128">
+      <c r="B85" s="107">
         <v>83</v>
       </c>
-      <c r="C85" s="129"/>
-      <c r="D85" s="135" t="s">
-        <v>155</v>
-      </c>
-      <c r="E85" s="131" t="s">
+      <c r="C85" s="126"/>
+      <c r="D85" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="132" t="s">
+      <c r="F85" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="133" t="s">
-        <v>156</v>
-      </c>
-      <c r="H85" s="134" t="s">
-        <v>324</v>
+      <c r="G85" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="H85" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86"/>
-      <c r="B86" s="128">
+      <c r="B86" s="107">
         <v>84</v>
       </c>
-      <c r="C86" s="129"/>
-      <c r="D86" s="135" t="s">
-        <v>157</v>
-      </c>
-      <c r="E86" s="131" t="s">
+      <c r="C86" s="126"/>
+      <c r="D86" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="132" t="s">
+      <c r="F86" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="133" t="s">
-        <v>158</v>
-      </c>
-      <c r="H86" s="134" t="s">
-        <v>324</v>
+      <c r="G86" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="H86" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87"/>
-      <c r="B87" s="128">
+      <c r="B87" s="107">
         <v>85</v>
       </c>
-      <c r="C87" s="129"/>
-      <c r="D87" s="135" t="s">
-        <v>372</v>
-      </c>
-      <c r="E87" s="131" t="s">
+      <c r="C87" s="126"/>
+      <c r="D87" s="113" t="s">
+        <v>366</v>
+      </c>
+      <c r="E87" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="132" t="s">
+      <c r="F87" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="133" t="s">
-        <v>159</v>
-      </c>
-      <c r="H87" s="134" t="s">
-        <v>324</v>
+      <c r="G87" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="H87" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88"/>
-      <c r="B88" s="128">
+      <c r="B88" s="107">
         <v>86</v>
       </c>
-      <c r="C88" s="129"/>
-      <c r="D88" s="135" t="s">
-        <v>160</v>
-      </c>
-      <c r="E88" s="131" t="s">
+      <c r="C88" s="126"/>
+      <c r="D88" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="132" t="s">
+      <c r="F88" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="133" t="s">
-        <v>161</v>
-      </c>
-      <c r="H88" s="134" t="s">
-        <v>324</v>
+      <c r="G88" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="H88" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89"/>
-      <c r="B89" s="128">
+      <c r="B89" s="107">
         <v>87</v>
       </c>
-      <c r="C89" s="129"/>
-      <c r="D89" s="136" t="s">
-        <v>162</v>
-      </c>
-      <c r="E89" s="131" t="s">
+      <c r="C89" s="126"/>
+      <c r="D89" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E89" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F89" s="132" t="s">
+      <c r="F89" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="133"/>
-      <c r="H89" s="134" t="s">
-        <v>324</v>
+      <c r="G89" s="111"/>
+      <c r="H89" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90"/>
-      <c r="B90" s="128">
+      <c r="B90" s="107">
         <v>88</v>
       </c>
-      <c r="C90" s="129"/>
-      <c r="D90" s="136" t="s">
-        <v>163</v>
-      </c>
-      <c r="E90" s="131" t="s">
+      <c r="C90" s="126"/>
+      <c r="D90" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="132" t="s">
+      <c r="F90" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="133"/>
-      <c r="H90" s="134" t="s">
-        <v>324</v>
+      <c r="G90" s="111"/>
+      <c r="H90" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91"/>
-      <c r="B91" s="128">
+      <c r="B91" s="107">
         <v>89</v>
       </c>
-      <c r="C91" s="129"/>
-      <c r="D91" s="136" t="s">
-        <v>164</v>
-      </c>
-      <c r="E91" s="131" t="s">
+      <c r="C91" s="126"/>
+      <c r="D91" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="E91" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F91" s="132" t="s">
+      <c r="F91" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="133"/>
-      <c r="H91" s="134" t="s">
-        <v>324</v>
+      <c r="G91" s="111"/>
+      <c r="H91" s="112" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B92" s="13">
         <v>90</v>
       </c>
-      <c r="C92" s="115" t="s">
-        <v>341</v>
+      <c r="C92" s="124" t="s">
+        <v>335</v>
       </c>
       <c r="D92" s="57" t="s">
         <v>56</v>
@@ -14209,7 +14270,7 @@
       <c r="B93" s="13">
         <v>91</v>
       </c>
-      <c r="C93" s="116"/>
+      <c r="C93" s="125"/>
       <c r="D93" s="57" t="s">
         <v>59</v>
       </c>
@@ -14220,17 +14281,17 @@
         <v>57</v>
       </c>
       <c r="G93" s="94" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H93" s="64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="13">
         <v>92</v>
       </c>
-      <c r="C94" s="116"/>
+      <c r="C94" s="125"/>
       <c r="D94" s="57" t="s">
         <v>60</v>
       </c>
@@ -14249,12 +14310,12 @@
       <c r="B95" s="13">
         <v>93</v>
       </c>
-      <c r="C95" s="116"/>
+      <c r="C95" s="125"/>
       <c r="D95" s="103" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E95" s="104" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F95" s="59" t="s">
         <v>57</v>
@@ -14266,7 +14327,7 @@
       <c r="B96" s="13">
         <v>94</v>
       </c>
-      <c r="C96" s="116"/>
+      <c r="C96" s="125"/>
       <c r="D96" s="57" t="s">
         <v>62</v>
       </c>
@@ -14277,7 +14338,7 @@
         <v>57</v>
       </c>
       <c r="G96" s="79" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H96" s="64"/>
     </row>
@@ -14285,9 +14346,9 @@
       <c r="B97" s="13">
         <v>95</v>
       </c>
-      <c r="C97" s="116"/>
+      <c r="C97" s="125"/>
       <c r="D97" s="57" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E97" s="56" t="s">
         <v>16</v>
@@ -14296,7 +14357,7 @@
         <v>57</v>
       </c>
       <c r="G97" s="79" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H97" s="64"/>
     </row>
@@ -14304,7 +14365,7 @@
       <c r="B98" s="13">
         <v>96</v>
       </c>
-      <c r="C98" s="116"/>
+      <c r="C98" s="125"/>
       <c r="D98" s="57" t="s">
         <v>63</v>
       </c>
@@ -14323,7 +14384,7 @@
       <c r="B99" s="13">
         <v>97</v>
       </c>
-      <c r="C99" s="116"/>
+      <c r="C99" s="125"/>
       <c r="D99" s="57" t="s">
         <v>65</v>
       </c>
@@ -14342,7 +14403,7 @@
       <c r="B100" s="13">
         <v>98</v>
       </c>
-      <c r="C100" s="116"/>
+      <c r="C100" s="125"/>
       <c r="D100" s="57" t="s">
         <v>67</v>
       </c>
@@ -14361,9 +14422,9 @@
       <c r="B101" s="13">
         <v>99</v>
       </c>
-      <c r="C101" s="116"/>
+      <c r="C101" s="125"/>
       <c r="D101" s="57" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E101" s="56" t="s">
         <v>23</v>
@@ -14372,17 +14433,17 @@
         <v>57</v>
       </c>
       <c r="G101" s="94" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H101" s="64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="13">
         <v>100</v>
       </c>
-      <c r="C102" s="116"/>
+      <c r="C102" s="125"/>
       <c r="D102" s="57" t="s">
         <v>69</v>
       </c>
@@ -14399,8 +14460,8 @@
       <c r="B103" s="13">
         <v>101</v>
       </c>
-      <c r="C103" s="115" t="s">
-        <v>369</v>
+      <c r="C103" s="124" t="s">
+        <v>363</v>
       </c>
       <c r="D103" s="57" t="s">
         <v>71</v>
@@ -14412,7 +14473,7 @@
         <v>57</v>
       </c>
       <c r="G103" s="79" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H103" s="64"/>
     </row>
@@ -14420,7 +14481,7 @@
       <c r="B104" s="13">
         <v>102</v>
       </c>
-      <c r="C104" s="116"/>
+      <c r="C104" s="125"/>
       <c r="D104" s="57" t="s">
         <v>72</v>
       </c>
@@ -14439,8 +14500,8 @@
       <c r="B105" s="13">
         <v>103</v>
       </c>
-      <c r="C105" s="115" t="s">
-        <v>346</v>
+      <c r="C105" s="124" t="s">
+        <v>340</v>
       </c>
       <c r="D105" s="52" t="s">
         <v>75</v>
@@ -14460,7 +14521,7 @@
       <c r="B106" s="13">
         <v>104</v>
       </c>
-      <c r="C106" s="116"/>
+      <c r="C106" s="125"/>
       <c r="D106" s="52" t="s">
         <v>77</v>
       </c>
@@ -14471,7 +14532,7 @@
         <v>57</v>
       </c>
       <c r="G106" s="105" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H106" s="64"/>
     </row>
@@ -14479,7 +14540,7 @@
       <c r="B107" s="13">
         <v>105</v>
       </c>
-      <c r="C107" s="116"/>
+      <c r="C107" s="125"/>
       <c r="D107" s="52" t="s">
         <v>78</v>
       </c>
@@ -14490,7 +14551,7 @@
         <v>57</v>
       </c>
       <c r="G107" s="105" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H107" s="64"/>
     </row>
@@ -14498,7 +14559,7 @@
       <c r="B108" s="13">
         <v>106</v>
       </c>
-      <c r="C108" s="116"/>
+      <c r="C108" s="125"/>
       <c r="D108" s="52" t="s">
         <v>79</v>
       </c>
@@ -14509,7 +14570,7 @@
         <v>57</v>
       </c>
       <c r="G108" s="79" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H108" s="64"/>
     </row>
@@ -14517,7 +14578,7 @@
       <c r="B109" s="13">
         <v>107</v>
       </c>
-      <c r="C109" s="116"/>
+      <c r="C109" s="125"/>
       <c r="D109" s="52" t="s">
         <v>80</v>
       </c>
@@ -14528,17 +14589,17 @@
         <v>57</v>
       </c>
       <c r="G109" s="94" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H109" s="64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="13">
         <v>108</v>
       </c>
-      <c r="C110" s="116"/>
+      <c r="C110" s="125"/>
       <c r="D110" s="52" t="s">
         <v>81</v>
       </c>
@@ -14549,7 +14610,7 @@
         <v>57</v>
       </c>
       <c r="G110" s="79" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H110" s="64"/>
     </row>
@@ -14557,9 +14618,9 @@
       <c r="B111" s="13">
         <v>109</v>
       </c>
-      <c r="C111" s="116"/>
+      <c r="C111" s="125"/>
       <c r="D111" s="52" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E111" s="89" t="s">
         <v>34</v>
@@ -14568,7 +14629,7 @@
         <v>57</v>
       </c>
       <c r="G111" s="105" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H111" s="64"/>
     </row>
@@ -14576,7 +14637,7 @@
       <c r="B112" s="13">
         <v>110</v>
       </c>
-      <c r="C112" s="116"/>
+      <c r="C112" s="125"/>
       <c r="D112" s="71" t="s">
         <v>82</v>
       </c>
@@ -14593,7 +14654,7 @@
       <c r="B113" s="13">
         <v>111</v>
       </c>
-      <c r="C113" s="116"/>
+      <c r="C113" s="125"/>
       <c r="D113" s="52" t="s">
         <v>83</v>
       </c>
@@ -14604,17 +14665,17 @@
         <v>57</v>
       </c>
       <c r="G113" s="94" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H113" s="64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="13">
         <v>112</v>
       </c>
-      <c r="C114" s="116"/>
+      <c r="C114" s="125"/>
       <c r="D114" s="52" t="s">
         <v>84</v>
       </c>
@@ -14625,17 +14686,17 @@
         <v>57</v>
       </c>
       <c r="G114" s="94" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H114" s="64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="13">
         <v>113</v>
       </c>
-      <c r="C115" s="116"/>
+      <c r="C115" s="125"/>
       <c r="D115" s="52" t="s">
         <v>85</v>
       </c>
@@ -14646,17 +14707,17 @@
         <v>57</v>
       </c>
       <c r="G115" s="94" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H115" s="64" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="13">
         <v>114</v>
       </c>
-      <c r="C116" s="116"/>
+      <c r="C116" s="125"/>
       <c r="D116" s="52" t="s">
         <v>86</v>
       </c>
@@ -14667,7 +14728,7 @@
         <v>57</v>
       </c>
       <c r="G116" s="79" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H116" s="64"/>
     </row>
@@ -14675,7 +14736,7 @@
       <c r="B117" s="13">
         <v>115</v>
       </c>
-      <c r="C117" s="116"/>
+      <c r="C117" s="125"/>
       <c r="D117" s="52" t="s">
         <v>87</v>
       </c>
@@ -14686,17 +14747,17 @@
         <v>57</v>
       </c>
       <c r="G117" s="94" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H117" s="64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="13">
         <v>116</v>
       </c>
-      <c r="C118" s="116"/>
+      <c r="C118" s="125"/>
       <c r="D118" s="52" t="s">
         <v>88</v>
       </c>
@@ -14707,19 +14768,19 @@
         <v>57</v>
       </c>
       <c r="G118" s="94" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H118" s="64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="13">
         <v>117</v>
       </c>
-      <c r="C119" s="116"/>
+      <c r="C119" s="125"/>
       <c r="D119" s="52" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E119" s="89" t="s">
         <v>16</v>
@@ -14728,7 +14789,7 @@
         <v>57</v>
       </c>
       <c r="G119" s="79" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H119" s="64"/>
     </row>
@@ -14737,11 +14798,11 @@
       <c r="B120" s="13">
         <v>118</v>
       </c>
-      <c r="C120" s="112" t="s">
-        <v>356</v>
+      <c r="C120" s="121" t="s">
+        <v>350</v>
       </c>
       <c r="D120" s="70" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E120" s="54" t="s">
         <v>16</v>
@@ -14750,10 +14811,10 @@
         <v>57</v>
       </c>
       <c r="G120" s="94" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H120" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14761,9 +14822,9 @@
       <c r="B121" s="13">
         <v>119</v>
       </c>
-      <c r="C121" s="112"/>
+      <c r="C121" s="121"/>
       <c r="D121" s="70" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E121" s="54" t="s">
         <v>16</v>
@@ -14772,10 +14833,10 @@
         <v>57</v>
       </c>
       <c r="G121" s="94" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H121" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14783,9 +14844,9 @@
       <c r="B122" s="13">
         <v>120</v>
       </c>
-      <c r="C122" s="112"/>
+      <c r="C122" s="121"/>
       <c r="D122" s="70" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E122" s="54" t="s">
         <v>16</v>
@@ -14794,10 +14855,10 @@
         <v>57</v>
       </c>
       <c r="G122" s="94" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H122" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14805,9 +14866,9 @@
       <c r="B123" s="13">
         <v>121</v>
       </c>
-      <c r="C123" s="112"/>
+      <c r="C123" s="121"/>
       <c r="D123" s="70" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E123" s="54" t="s">
         <v>16</v>
@@ -14816,10 +14877,10 @@
         <v>57</v>
       </c>
       <c r="G123" s="94" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H123" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14827,9 +14888,9 @@
       <c r="B124" s="13">
         <v>122</v>
       </c>
-      <c r="C124" s="112"/>
+      <c r="C124" s="121"/>
       <c r="D124" s="70" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E124" s="54" t="s">
         <v>16</v>
@@ -14838,10 +14899,10 @@
         <v>57</v>
       </c>
       <c r="G124" s="94" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H124" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14849,9 +14910,9 @@
       <c r="B125" s="13">
         <v>123</v>
       </c>
-      <c r="C125" s="112"/>
+      <c r="C125" s="121"/>
       <c r="D125" s="70" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E125" s="54" t="s">
         <v>34</v>
@@ -14860,10 +14921,10 @@
         <v>57</v>
       </c>
       <c r="G125" s="94" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H125" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14871,9 +14932,9 @@
       <c r="B126" s="13">
         <v>124</v>
       </c>
-      <c r="C126" s="112"/>
+      <c r="C126" s="121"/>
       <c r="D126" s="70" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E126" s="54" t="s">
         <v>16</v>
@@ -14882,10 +14943,10 @@
         <v>57</v>
       </c>
       <c r="G126" s="94" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H126" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14893,9 +14954,9 @@
       <c r="B127" s="13">
         <v>125</v>
       </c>
-      <c r="C127" s="112"/>
+      <c r="C127" s="121"/>
       <c r="D127" s="51" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E127" s="54" t="s">
         <v>16</v>
@@ -14904,10 +14965,10 @@
         <v>57</v>
       </c>
       <c r="G127" s="94" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H127" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14915,9 +14976,9 @@
       <c r="B128" s="13">
         <v>126</v>
       </c>
-      <c r="C128" s="112"/>
+      <c r="C128" s="121"/>
       <c r="D128" s="51" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E128" s="54" t="s">
         <v>16</v>
@@ -14926,10 +14987,10 @@
         <v>57</v>
       </c>
       <c r="G128" s="94" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H128" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14937,9 +14998,9 @@
       <c r="B129" s="13">
         <v>127</v>
       </c>
-      <c r="C129" s="112"/>
+      <c r="C129" s="121"/>
       <c r="D129" s="51" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E129" s="54" t="s">
         <v>16</v>
@@ -14948,10 +15009,10 @@
         <v>57</v>
       </c>
       <c r="G129" s="94" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H129" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14959,11 +15020,11 @@
       <c r="B130" s="13">
         <v>128</v>
       </c>
-      <c r="C130" s="112" t="s">
-        <v>360</v>
+      <c r="C130" s="121" t="s">
+        <v>354</v>
       </c>
       <c r="D130" s="51" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E130" s="54" t="s">
         <v>16</v>
@@ -14972,10 +15033,10 @@
         <v>57</v>
       </c>
       <c r="G130" s="94" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H130" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14983,9 +15044,9 @@
       <c r="B131" s="13">
         <v>129</v>
       </c>
-      <c r="C131" s="112"/>
+      <c r="C131" s="121"/>
       <c r="D131" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E131" s="54" t="s">
         <v>16</v>
@@ -14994,10 +15055,10 @@
         <v>57</v>
       </c>
       <c r="G131" s="94" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H131" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15005,9 +15066,9 @@
       <c r="B132" s="13">
         <v>130</v>
       </c>
-      <c r="C132" s="112"/>
+      <c r="C132" s="121"/>
       <c r="D132" s="70" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E132" s="54" t="s">
         <v>16</v>
@@ -15016,10 +15077,10 @@
         <v>57</v>
       </c>
       <c r="G132" s="94" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H132" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15027,9 +15088,9 @@
       <c r="B133" s="13">
         <v>131</v>
       </c>
-      <c r="C133" s="112"/>
+      <c r="C133" s="121"/>
       <c r="D133" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E133" s="54" t="s">
         <v>16</v>
@@ -15038,10 +15099,10 @@
         <v>57</v>
       </c>
       <c r="G133" s="94" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H133" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15049,9 +15110,9 @@
       <c r="B134" s="13">
         <v>132</v>
       </c>
-      <c r="C134" s="112"/>
+      <c r="C134" s="121"/>
       <c r="D134" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E134" s="54" t="s">
         <v>16</v>
@@ -15060,10 +15121,10 @@
         <v>57</v>
       </c>
       <c r="G134" s="94" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H134" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15071,9 +15132,9 @@
       <c r="B135" s="13">
         <v>133</v>
       </c>
-      <c r="C135" s="112"/>
+      <c r="C135" s="121"/>
       <c r="D135" s="70" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E135" s="54" t="s">
         <v>16</v>
@@ -15082,10 +15143,10 @@
         <v>57</v>
       </c>
       <c r="G135" s="94" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H135" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15093,9 +15154,9 @@
       <c r="B136" s="13">
         <v>134</v>
       </c>
-      <c r="C136" s="112"/>
+      <c r="C136" s="121"/>
       <c r="D136" s="70" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E136" s="54" t="s">
         <v>16</v>
@@ -15104,10 +15165,10 @@
         <v>57</v>
       </c>
       <c r="G136" s="94" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H136" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15115,9 +15176,9 @@
       <c r="B137" s="13">
         <v>135</v>
       </c>
-      <c r="C137" s="112"/>
+      <c r="C137" s="121"/>
       <c r="D137" s="51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E137" s="54" t="s">
         <v>16</v>
@@ -15126,10 +15187,10 @@
         <v>57</v>
       </c>
       <c r="G137" s="94" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H137" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15137,9 +15198,9 @@
       <c r="B138" s="13">
         <v>136</v>
       </c>
-      <c r="C138" s="112"/>
+      <c r="C138" s="121"/>
       <c r="D138" s="70" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E138" s="54" t="s">
         <v>34</v>
@@ -15148,10 +15209,10 @@
         <v>57</v>
       </c>
       <c r="G138" s="94" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H138" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15159,9 +15220,9 @@
       <c r="B139" s="13">
         <v>137</v>
       </c>
-      <c r="C139" s="112"/>
+      <c r="C139" s="121"/>
       <c r="D139" s="51" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E139" s="54" t="s">
         <v>16</v>
@@ -15170,10 +15231,10 @@
         <v>57</v>
       </c>
       <c r="G139" s="94" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H139" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15181,9 +15242,9 @@
       <c r="B140" s="13">
         <v>138</v>
       </c>
-      <c r="C140" s="112"/>
+      <c r="C140" s="121"/>
       <c r="D140" s="51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E140" s="54" t="s">
         <v>16</v>
@@ -15192,10 +15253,10 @@
         <v>57</v>
       </c>
       <c r="G140" s="94" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H140" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15203,9 +15264,9 @@
       <c r="B141" s="13">
         <v>139</v>
       </c>
-      <c r="C141" s="112"/>
+      <c r="C141" s="121"/>
       <c r="D141" s="51" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E141" s="54" t="s">
         <v>16</v>
@@ -15214,10 +15275,10 @@
         <v>57</v>
       </c>
       <c r="G141" s="94" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H141" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15225,9 +15286,9 @@
       <c r="B142" s="13">
         <v>140</v>
       </c>
-      <c r="C142" s="112"/>
+      <c r="C142" s="121"/>
       <c r="D142" s="99" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E142" s="66" t="s">
         <v>16</v>
@@ -15237,15 +15298,15 @@
       </c>
       <c r="G142" s="85"/>
       <c r="H142" s="82" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="13">
         <v>141</v>
       </c>
-      <c r="C143" s="115" t="s">
-        <v>361</v>
+      <c r="C143" s="124" t="s">
+        <v>355</v>
       </c>
       <c r="D143" s="72" t="s">
         <v>90</v>
@@ -15257,7 +15318,7 @@
         <v>57</v>
       </c>
       <c r="G143" s="79" t="s">
-        <v>91</v>
+        <v>392</v>
       </c>
       <c r="H143" s="64"/>
     </row>
@@ -15265,7 +15326,7 @@
       <c r="B144" s="13">
         <v>142</v>
       </c>
-      <c r="C144" s="116"/>
+      <c r="C144" s="125"/>
       <c r="D144" s="72" t="s">
         <v>92</v>
       </c>
@@ -15276,17 +15337,17 @@
         <v>57</v>
       </c>
       <c r="G144" s="94" t="s">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="H144" s="64" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="13">
         <v>143</v>
       </c>
-      <c r="C145" s="116"/>
+      <c r="C145" s="125"/>
       <c r="D145" s="72" t="s">
         <v>93</v>
       </c>
@@ -15297,17 +15358,17 @@
         <v>57</v>
       </c>
       <c r="G145" s="79" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="H145" s="64"/>
     </row>
-    <row r="146" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="13">
         <v>144</v>
       </c>
-      <c r="C146" s="116"/>
+      <c r="C146" s="125"/>
       <c r="D146" s="72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E146" s="56" t="s">
         <v>18</v>
@@ -15318,13 +15379,13 @@
       <c r="G146" s="79"/>
       <c r="H146" s="64"/>
     </row>
-    <row r="147" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="13">
         <v>145</v>
       </c>
-      <c r="C147" s="116"/>
+      <c r="C147" s="125"/>
       <c r="D147" s="72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E147" s="56" t="s">
         <v>16</v>
@@ -15333,17 +15394,17 @@
         <v>57</v>
       </c>
       <c r="G147" s="79" t="s">
-        <v>97</v>
+        <v>389</v>
       </c>
       <c r="H147" s="64"/>
     </row>
-    <row r="148" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="13">
         <v>146</v>
       </c>
-      <c r="C148" s="116"/>
+      <c r="C148" s="125"/>
       <c r="D148" s="72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E148" s="56" t="s">
         <v>16</v>
@@ -15352,17 +15413,17 @@
         <v>57</v>
       </c>
       <c r="G148" s="79" t="s">
-        <v>99</v>
+        <v>388</v>
       </c>
       <c r="H148" s="64"/>
     </row>
-    <row r="149" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="13">
         <v>147</v>
       </c>
-      <c r="C149" s="116"/>
+      <c r="C149" s="125"/>
       <c r="D149" s="72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E149" s="56" t="s">
         <v>16</v>
@@ -15371,17 +15432,17 @@
         <v>57</v>
       </c>
       <c r="G149" s="79" t="s">
-        <v>101</v>
+        <v>393</v>
       </c>
       <c r="H149" s="64"/>
     </row>
-    <row r="150" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="13">
         <v>148</v>
       </c>
-      <c r="C150" s="116"/>
+      <c r="C150" s="125"/>
       <c r="D150" s="72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E150" s="56" t="s">
         <v>16</v>
@@ -15390,17 +15451,17 @@
         <v>57</v>
       </c>
       <c r="G150" s="79" t="s">
-        <v>103</v>
+        <v>394</v>
       </c>
       <c r="H150" s="64"/>
     </row>
-    <row r="151" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="13">
         <v>149</v>
       </c>
-      <c r="C151" s="116"/>
+      <c r="C151" s="125"/>
       <c r="D151" s="72" t="s">
-        <v>104</v>
+        <v>396</v>
       </c>
       <c r="E151" s="56" t="s">
         <v>16</v>
@@ -15408,20 +15469,23 @@
       <c r="F151" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G151" s="79" t="s">
+      <c r="G151" s="105" t="s">
+        <v>395</v>
+      </c>
+      <c r="H151" s="64" t="s">
         <v>319</v>
       </c>
-      <c r="H151" s="64" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I151" s="138" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="13">
         <v>150</v>
       </c>
-      <c r="C152" s="116"/>
+      <c r="C152" s="125"/>
       <c r="D152" s="72" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E152" s="56" t="s">
         <v>23</v>
@@ -15430,19 +15494,19 @@
         <v>57</v>
       </c>
       <c r="G152" s="94" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H152" s="64" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="13">
         <v>151</v>
       </c>
-      <c r="C153" s="116"/>
+      <c r="C153" s="125"/>
       <c r="D153" s="72" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E153" s="56" t="s">
         <v>25</v>
@@ -15453,13 +15517,13 @@
       <c r="G153" s="79"/>
       <c r="H153" s="64"/>
     </row>
-    <row r="154" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="13">
         <v>152</v>
       </c>
-      <c r="C154" s="116"/>
+      <c r="C154" s="125"/>
       <c r="D154" s="72" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E154" s="56" t="s">
         <v>16</v>
@@ -15468,21 +15532,21 @@
         <v>57</v>
       </c>
       <c r="G154" s="94" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H154" s="64" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="13">
         <v>153</v>
       </c>
-      <c r="C155" s="115" t="s">
-        <v>362</v>
+      <c r="C155" s="124" t="s">
+        <v>356</v>
       </c>
       <c r="D155" s="62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E155" s="89" t="s">
         <v>16</v>
@@ -15495,13 +15559,13 @@
       </c>
       <c r="H155" s="64"/>
     </row>
-    <row r="156" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="13">
         <v>154</v>
       </c>
-      <c r="C156" s="116"/>
+      <c r="C156" s="125"/>
       <c r="D156" s="62" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E156" s="89" t="s">
         <v>16</v>
@@ -15510,17 +15574,17 @@
         <v>57</v>
       </c>
       <c r="G156" s="79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H156" s="64"/>
     </row>
-    <row r="157" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="13">
         <v>155</v>
       </c>
-      <c r="C157" s="116"/>
+      <c r="C157" s="125"/>
       <c r="D157" s="62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E157" s="89" t="s">
         <v>16</v>
@@ -15529,17 +15593,17 @@
         <v>57</v>
       </c>
       <c r="G157" s="79" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H157" s="64"/>
     </row>
-    <row r="158" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="13">
         <v>156</v>
       </c>
-      <c r="C158" s="116"/>
+      <c r="C158" s="125"/>
       <c r="D158" s="62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E158" s="89" t="s">
         <v>16</v>
@@ -15548,19 +15612,19 @@
         <v>57</v>
       </c>
       <c r="G158" s="79" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H158" s="64"/>
     </row>
-    <row r="159" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="13">
         <v>157</v>
       </c>
-      <c r="C159" s="116" t="s">
-        <v>363</v>
+      <c r="C159" s="125" t="s">
+        <v>357</v>
       </c>
       <c r="D159" s="62" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E159" s="89" t="s">
         <v>16</v>
@@ -15572,16 +15636,16 @@
         <v>40</v>
       </c>
       <c r="H159" s="64" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="13">
         <v>158</v>
       </c>
-      <c r="C160" s="116"/>
+      <c r="C160" s="125"/>
       <c r="D160" s="62" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E160" s="89" t="s">
         <v>16</v>
@@ -15598,9 +15662,9 @@
       <c r="B161" s="13">
         <v>159</v>
       </c>
-      <c r="C161" s="116"/>
+      <c r="C161" s="125"/>
       <c r="D161" s="62" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E161" s="89" t="s">
         <v>16</v>
@@ -15617,9 +15681,9 @@
       <c r="B162" s="13">
         <v>160</v>
       </c>
-      <c r="C162" s="116"/>
+      <c r="C162" s="125"/>
       <c r="D162" s="81" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E162" s="89" t="s">
         <v>16</v>
@@ -15628,19 +15692,19 @@
         <v>57</v>
       </c>
       <c r="G162" s="85" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H162" s="82" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="13">
         <v>161</v>
       </c>
-      <c r="C163" s="116"/>
+      <c r="C163" s="125"/>
       <c r="D163" s="62" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E163" s="89" t="s">
         <v>16</v>
@@ -15649,7 +15713,7 @@
         <v>57</v>
       </c>
       <c r="G163" s="94" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H163" s="64"/>
     </row>
@@ -15657,9 +15721,9 @@
       <c r="B164" s="13">
         <v>162</v>
       </c>
-      <c r="C164" s="116"/>
+      <c r="C164" s="125"/>
       <c r="D164" s="62" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E164" s="89" t="s">
         <v>16</v>
@@ -15668,7 +15732,7 @@
         <v>57</v>
       </c>
       <c r="G164" s="94" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H164" s="64"/>
     </row>
@@ -15676,9 +15740,9 @@
       <c r="B165" s="13">
         <v>163</v>
       </c>
-      <c r="C165" s="116"/>
+      <c r="C165" s="125"/>
       <c r="D165" s="62" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E165" s="89" t="s">
         <v>16</v>
@@ -15687,7 +15751,7 @@
         <v>57</v>
       </c>
       <c r="G165" s="94" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H165" s="64"/>
     </row>
@@ -15695,9 +15759,9 @@
       <c r="B166" s="13">
         <v>164</v>
       </c>
-      <c r="C166" s="116"/>
+      <c r="C166" s="125"/>
       <c r="D166" s="62" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E166" s="89" t="s">
         <v>16</v>
@@ -15706,7 +15770,7 @@
         <v>57</v>
       </c>
       <c r="G166" s="94" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H166" s="64"/>
     </row>
@@ -15714,9 +15778,9 @@
       <c r="B167" s="13">
         <v>165</v>
       </c>
-      <c r="C167" s="116"/>
+      <c r="C167" s="125"/>
       <c r="D167" s="62" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E167" s="89" t="s">
         <v>16</v>
@@ -15725,7 +15789,7 @@
         <v>57</v>
       </c>
       <c r="G167" s="94" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H167" s="64"/>
     </row>
@@ -15733,9 +15797,9 @@
       <c r="B168" s="13">
         <v>166</v>
       </c>
-      <c r="C168" s="116"/>
+      <c r="C168" s="125"/>
       <c r="D168" s="62" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E168" s="89" t="s">
         <v>16</v>
@@ -15744,7 +15808,7 @@
         <v>57</v>
       </c>
       <c r="G168" s="94" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H168" s="64"/>
     </row>
@@ -15752,9 +15816,9 @@
       <c r="B169" s="13">
         <v>167</v>
       </c>
-      <c r="C169" s="116"/>
+      <c r="C169" s="125"/>
       <c r="D169" s="62" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E169" s="89" t="s">
         <v>16</v>
@@ -15763,7 +15827,7 @@
         <v>57</v>
       </c>
       <c r="G169" s="94" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H169" s="64"/>
     </row>
@@ -15772,11 +15836,11 @@
       <c r="B170" s="13">
         <v>168</v>
       </c>
-      <c r="C170" s="110" t="s">
-        <v>364</v>
+      <c r="C170" s="119" t="s">
+        <v>358</v>
       </c>
       <c r="D170" s="63" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E170" s="66" t="s">
         <v>16</v>
@@ -15785,10 +15849,10 @@
         <v>57</v>
       </c>
       <c r="G170" s="94" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H170" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15796,9 +15860,9 @@
       <c r="B171" s="13">
         <v>169</v>
       </c>
-      <c r="C171" s="110"/>
+      <c r="C171" s="119"/>
       <c r="D171" s="63" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E171" s="66" t="s">
         <v>16</v>
@@ -15807,10 +15871,10 @@
         <v>57</v>
       </c>
       <c r="G171" s="94" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H171" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15818,9 +15882,9 @@
       <c r="B172" s="13">
         <v>170</v>
       </c>
-      <c r="C172" s="110"/>
+      <c r="C172" s="119"/>
       <c r="D172" s="69" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E172" s="66" t="s">
         <v>16</v>
@@ -15829,10 +15893,10 @@
         <v>57</v>
       </c>
       <c r="G172" s="94" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H172" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15840,9 +15904,9 @@
       <c r="B173" s="13">
         <v>171</v>
       </c>
-      <c r="C173" s="110"/>
+      <c r="C173" s="119"/>
       <c r="D173" s="69" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E173" s="66" t="s">
         <v>16</v>
@@ -15851,10 +15915,10 @@
         <v>57</v>
       </c>
       <c r="G173" s="94" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H173" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15862,9 +15926,9 @@
       <c r="B174" s="13">
         <v>172</v>
       </c>
-      <c r="C174" s="110"/>
+      <c r="C174" s="119"/>
       <c r="D174" s="69" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E174" s="66" t="s">
         <v>16</v>
@@ -15873,10 +15937,10 @@
         <v>57</v>
       </c>
       <c r="G174" s="94" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H174" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15884,9 +15948,9 @@
       <c r="B175" s="13">
         <v>173</v>
       </c>
-      <c r="C175" s="110"/>
+      <c r="C175" s="119"/>
       <c r="D175" s="69" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E175" s="66" t="s">
         <v>16</v>
@@ -15895,10 +15959,10 @@
         <v>57</v>
       </c>
       <c r="G175" s="94" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H175" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15906,9 +15970,9 @@
       <c r="B176" s="13">
         <v>174</v>
       </c>
-      <c r="C176" s="110"/>
+      <c r="C176" s="119"/>
       <c r="D176" s="69" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E176" s="66" t="s">
         <v>16</v>
@@ -15917,10 +15981,10 @@
         <v>57</v>
       </c>
       <c r="G176" s="94" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H176" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15928,9 +15992,9 @@
       <c r="B177" s="13">
         <v>175</v>
       </c>
-      <c r="C177" s="110"/>
+      <c r="C177" s="119"/>
       <c r="D177" s="69" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E177" s="66" t="s">
         <v>16</v>
@@ -15939,10 +16003,10 @@
         <v>57</v>
       </c>
       <c r="G177" s="94" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H177" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15950,9 +16014,9 @@
       <c r="B178" s="13">
         <v>176</v>
       </c>
-      <c r="C178" s="110"/>
+      <c r="C178" s="119"/>
       <c r="D178" s="69" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E178" s="66" t="s">
         <v>16</v>
@@ -15961,10 +16025,10 @@
         <v>57</v>
       </c>
       <c r="G178" s="94" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H178" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15972,9 +16036,9 @@
       <c r="B179" s="13">
         <v>177</v>
       </c>
-      <c r="C179" s="110"/>
+      <c r="C179" s="119"/>
       <c r="D179" s="69" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E179" s="66" t="s">
         <v>16</v>
@@ -15983,10 +16047,10 @@
         <v>57</v>
       </c>
       <c r="G179" s="94" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H179" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15994,9 +16058,9 @@
       <c r="B180" s="13">
         <v>178</v>
       </c>
-      <c r="C180" s="110"/>
+      <c r="C180" s="119"/>
       <c r="D180" s="69" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E180" s="66" t="s">
         <v>16</v>
@@ -16005,10 +16069,10 @@
         <v>57</v>
       </c>
       <c r="G180" s="94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H180" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16016,9 +16080,9 @@
       <c r="B181" s="13">
         <v>179</v>
       </c>
-      <c r="C181" s="110"/>
+      <c r="C181" s="119"/>
       <c r="D181" s="69" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E181" s="66" t="s">
         <v>16</v>
@@ -16027,10 +16091,10 @@
         <v>57</v>
       </c>
       <c r="G181" s="94" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H181" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16038,9 +16102,9 @@
       <c r="B182" s="13">
         <v>180</v>
       </c>
-      <c r="C182" s="110"/>
+      <c r="C182" s="119"/>
       <c r="D182" s="69" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E182" s="66" t="s">
         <v>16</v>
@@ -16049,10 +16113,10 @@
         <v>57</v>
       </c>
       <c r="G182" s="94" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H182" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16060,9 +16124,9 @@
       <c r="B183" s="13">
         <v>181</v>
       </c>
-      <c r="C183" s="110"/>
+      <c r="C183" s="119"/>
       <c r="D183" s="69" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E183" s="66" t="s">
         <v>16</v>
@@ -16071,10 +16135,10 @@
         <v>57</v>
       </c>
       <c r="G183" s="94" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H183" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16082,9 +16146,9 @@
       <c r="B184" s="13">
         <v>182</v>
       </c>
-      <c r="C184" s="110"/>
+      <c r="C184" s="119"/>
       <c r="D184" s="69" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E184" s="66" t="s">
         <v>16</v>
@@ -16093,10 +16157,10 @@
         <v>57</v>
       </c>
       <c r="G184" s="94" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H184" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16104,9 +16168,9 @@
       <c r="B185" s="13">
         <v>183</v>
       </c>
-      <c r="C185" s="110"/>
+      <c r="C185" s="119"/>
       <c r="D185" s="69" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E185" s="66" t="s">
         <v>16</v>
@@ -16115,10 +16179,10 @@
         <v>57</v>
       </c>
       <c r="G185" s="94" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H185" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16126,9 +16190,9 @@
       <c r="B186" s="13">
         <v>184</v>
       </c>
-      <c r="C186" s="110"/>
+      <c r="C186" s="119"/>
       <c r="D186" s="69" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E186" s="66" t="s">
         <v>16</v>
@@ -16137,10 +16201,10 @@
         <v>57</v>
       </c>
       <c r="G186" s="94" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H186" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16148,9 +16212,9 @@
       <c r="B187" s="13">
         <v>185</v>
       </c>
-      <c r="C187" s="110"/>
+      <c r="C187" s="119"/>
       <c r="D187" s="69" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E187" s="66" t="s">
         <v>16</v>
@@ -16159,10 +16223,10 @@
         <v>57</v>
       </c>
       <c r="G187" s="94" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H187" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16170,9 +16234,9 @@
       <c r="B188" s="13">
         <v>186</v>
       </c>
-      <c r="C188" s="110"/>
+      <c r="C188" s="119"/>
       <c r="D188" s="69" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E188" s="66" t="s">
         <v>16</v>
@@ -16181,10 +16245,10 @@
         <v>57</v>
       </c>
       <c r="G188" s="94" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H188" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16192,9 +16256,9 @@
       <c r="B189" s="13">
         <v>187</v>
       </c>
-      <c r="C189" s="110"/>
+      <c r="C189" s="119"/>
       <c r="D189" s="69" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E189" s="66" t="s">
         <v>16</v>
@@ -16203,10 +16267,10 @@
         <v>57</v>
       </c>
       <c r="G189" s="94" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H189" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16214,9 +16278,9 @@
       <c r="B190" s="13">
         <v>188</v>
       </c>
-      <c r="C190" s="110"/>
+      <c r="C190" s="119"/>
       <c r="D190" s="69" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E190" s="66" t="s">
         <v>16</v>
@@ -16225,10 +16289,10 @@
         <v>57</v>
       </c>
       <c r="G190" s="94" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H190" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16236,9 +16300,9 @@
       <c r="B191" s="13">
         <v>189</v>
       </c>
-      <c r="C191" s="110"/>
+      <c r="C191" s="119"/>
       <c r="D191" s="69" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E191" s="66" t="s">
         <v>16</v>
@@ -16247,10 +16311,10 @@
         <v>57</v>
       </c>
       <c r="G191" s="94" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H191" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -16258,9 +16322,9 @@
       <c r="B192" s="100">
         <v>190</v>
       </c>
-      <c r="C192" s="111"/>
+      <c r="C192" s="120"/>
       <c r="D192" s="88" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E192" s="67" t="s">
         <v>16</v>
@@ -16269,10 +16333,10 @@
         <v>57</v>
       </c>
       <c r="G192" s="95" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H192" s="101" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17642,31 +17706,31 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="124" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="125"/>
+      <c r="B2" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="135"/>
     </row>
     <row r="3" spans="2:13" s="18" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>70</v>
@@ -17675,36 +17739,36 @@
         <v>74</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>89</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="122" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F4" s="50"/>
       <c r="G4" s="1"/>
@@ -17716,7 +17780,7 @@
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="122"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="5" t="s">
         <v>70</v>
       </c>
@@ -17725,7 +17789,7 @@
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -17736,7 +17800,7 @@
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="122"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="5" t="s">
         <v>74</v>
       </c>
@@ -17746,7 +17810,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -17756,9 +17820,9 @@
       <c r="M6" s="23"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="122"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>57</v>
@@ -17767,7 +17831,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="19"/>
       <c r="H7" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="20"/>
@@ -17776,9 +17840,9 @@
       <c r="M7" s="23"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="122"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>57</v>
@@ -17788,7 +17852,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -17796,7 +17860,7 @@
       <c r="M8" s="23"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="122"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="5" t="s">
         <v>89</v>
       </c>
@@ -17809,16 +17873,16 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K9" s="50"/>
       <c r="L9" s="1"/>
       <c r="M9" s="24"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="122"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>57</v>
@@ -17830,15 +17894,15 @@
       <c r="I10" s="20"/>
       <c r="J10" s="50"/>
       <c r="K10" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="24"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="122"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>57</v>
@@ -17851,14 +17915,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="123"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="25" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>57</v>
@@ -17872,7 +17936,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="28"/>
       <c r="M12" s="29" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -17931,71 +17995,71 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="124" t="s">
+      <c r="H3" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="125"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="122" t="s">
-        <v>128</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F4" s="50"/>
       <c r="G4" s="1"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="126"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="126"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
@@ -18005,14 +18069,14 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="127"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>15</v>
@@ -18021,7 +18085,7 @@
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -18074,6 +18138,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033C8C618B2A2B341B3B0C9790A173ACD" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c40ebbfe3c414d1ccb793c7a71656a68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="800f79bc-e7dd-46fb-9ad5-c233bb1abdf9" xmlns:ns3="a0b74ea9-89d9-43cb-a163-e9320d483776" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1d82c05e8c45e199eba9dcfb260b401" ns2:_="" ns3:_="">
     <xsd:import namespace="800f79bc-e7dd-46fb-9ad5-c233bb1abdf9"/>
@@ -18278,22 +18357,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96EC4C15-7EED-4784-8F5D-530E01EF32B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a0b74ea9-89d9-43cb-a163-e9320d483776"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="800f79bc-e7dd-46fb-9ad5-c233bb1abdf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD46AAD-E98A-4FA8-BFA3-1BCF67823CB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137238F2-A448-486B-B5AE-DB4CAF4A8984}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18310,29 +18399,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD46AAD-E98A-4FA8-BFA3-1BCF67823CB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96EC4C15-7EED-4784-8F5D-530E01EF32B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="800f79bc-e7dd-46fb-9ad5-c233bb1abdf9"/>
-    <ds:schemaRef ds:uri="a0b74ea9-89d9-43cb-a163-e9320d483776"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/R2/02_SignalMatrix/HkmcVehOutputAdap/VehOutputAdap_SignalMatrix_V3_R2.xlsx
+++ b/R2/02_SignalMatrix/HkmcVehOutputAdap/VehOutputAdap_SignalMatrix_V3_R2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_2020\90_GitHub\0410\Veoneer\R2\02_SignalMatrix\HkmcVehOutputAdap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9A6D3-93CE-47CE-9B3E-262BE53D441B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5972FD45-E71F-462A-B674-60674699F335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51B81819-EC55-40BC-AC3D-96F7FA05F5FF}"/>
   </bookViews>
@@ -12322,7 +12322,7 @@
   <dimension ref="A1:K556"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
